--- a/ExperimentResults/ResultStats.xlsx
+++ b/ExperimentResults/ResultStats.xlsx
@@ -224,9 +224,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -257,9 +257,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -597,9 +597,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -656,9 +656,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -699,9 +699,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -732,7 +732,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -773,20 +776,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average Execution Time Adjusted for Failure Rate (ms)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Execution Time Adjusted for Failure Rate (ms)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -811,9 +809,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1151,9 +1149,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1210,9 +1208,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1253,9 +1251,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1286,7 +1284,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1327,20 +1328,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average Bias</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Bias</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1365,9 +1361,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1705,9 +1701,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1764,9 +1760,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1807,9 +1803,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1840,7 +1836,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1881,20 +1880,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Percentage of time</a:t>
+              <a:t>Percentage of time bias was toward the end rather than the beginning</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> bias was toward the end rather than the beginning</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1919,9 +1913,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2259,9 +2253,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2318,9 +2312,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2361,9 +2355,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2394,7 +2388,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2435,9 +2432,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -2468,9 +2465,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2808,9 +2805,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2868,9 +2865,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2911,9 +2908,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2944,7 +2941,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2985,9 +2985,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -3018,9 +3018,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3358,9 +3358,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3417,9 +3417,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3460,9 +3460,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3493,7 +3493,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3534,9 +3537,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -3567,9 +3570,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3907,9 +3910,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3966,9 +3969,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4009,9 +4012,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -4042,7 +4045,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4083,9 +4089,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -4116,9 +4122,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -4456,9 +4462,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4515,9 +4521,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4558,9 +4564,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -4591,7 +4597,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4632,9 +4641,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -4665,9 +4674,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -5005,9 +5014,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -5064,9 +5073,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -5107,9 +5116,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -5140,7 +5149,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10581,7 +10593,7 @@
   <dimension ref="A2:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+      <selection activeCell="Z58" sqref="Z58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExperimentResults/ResultStats.xlsx
+++ b/ExperimentResults/ResultStats.xlsx
@@ -176,7 +176,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1993,7 +1993,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$23:$F$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.15173934694458299</c:v>
@@ -2085,7 +2085,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$24:$F$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.1709999999999999E-2</c:v>
@@ -2096,10 +2096,10 @@
                 <c:pt idx="2">
                   <c:v>1.6800000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
+                <c:pt idx="3">
                   <c:v>8.0000000000000007E-5</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
+                <c:pt idx="4">
                   <c:v>3.0219088390833501E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2177,7 +2177,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$25:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.14391999999999999</c:v>
@@ -2289,7 +2289,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10592,8 +10592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z58" sqref="Z58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10961,19 +10961,19 @@
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>0.15173934694458299</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>2.47795044099118E-2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>2.34375E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>2.6086956521739101E-2</v>
       </c>
     </row>
@@ -10981,13 +10981,13 @@
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>5.1709999999999999E-2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>2.32E-3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="E24" s="6">
@@ -11001,19 +11001,19 @@
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>0.14391999999999999</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>2.6169999999999999E-2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
         <v>3.0530000000000002E-2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <v>2.0310406208124201E-2</v>
       </c>
     </row>

--- a/ExperimentResults/ResultStats.xlsx
+++ b/ExperimentResults/ResultStats.xlsx
@@ -210,63 +210,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Execution Time For Single Iteration (ms)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -383,6 +327,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -475,6 +420,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -762,63 +708,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Execution Time Adjusted for Failure Rate (ms)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -935,6 +825,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1027,6 +918,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1314,63 +1206,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Bias</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1487,6 +1323,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1579,6 +1416,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1866,63 +1704,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percentage of time bias was toward the end rather than the beginning</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2039,6 +1821,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2131,6 +1914,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2418,63 +2202,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Interestingness</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2591,6 +2319,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2683,6 +2412,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2971,63 +2701,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Fun</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3144,12 +2818,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="diamond"/>
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
@@ -3163,6 +2838,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C21A-4F77-B40D-40A3D06964FB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$32:$F$32</c:f>
@@ -3236,6 +2945,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3523,63 +3233,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Challenge </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3696,6 +3350,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3788,6 +3443,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4075,63 +3731,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Satisfyingness</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4248,6 +3848,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4340,6 +3941,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4627,63 +4229,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Boredom</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4800,6 +4346,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4892,6 +4439,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10592,8 +10140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
